--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-26/Sample-26.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-26/Sample-26.xlsx
@@ -15,26 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>12001</t>
-  </si>
-  <si>
-    <t>12002</t>
-  </si>
-  <si>
-    <t>12003</t>
-  </si>
-  <si>
-    <t>12010</t>
-  </si>
-  <si>
-    <t>12011</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -62,80 +47,23 @@
     <t>Items in Stock</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Purchase Price</t>
   </si>
   <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>5,33</t>
-  </si>
-  <si>
-    <t>8,99</t>
-  </si>
-  <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>13,77</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>3,99</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t>15,37</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>23,48</t>
-  </si>
-  <si>
     <t>Profit</t>
-  </si>
-  <si>
-    <t>2,69</t>
-  </si>
-  <si>
-    <t>6,77</t>
-  </si>
-  <si>
-    <t>6,38</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>9,71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="##0;[Black]\-##0"/>
+    <numFmt numFmtId="165" formatCode="##0.00;[Black]\-##0.00"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -153,7 +81,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +97,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD" tint="0"/>
-        <bgColor rgb="FFFFFF" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -205,99 +127,66 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="4" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="5" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="7" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="8" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="9" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="10" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="11" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="12" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="4" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="10" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="3qojqj1h" xfId="1"/>
-    <cellStyle name="3qojqj1h_Alternate" xfId="2"/>
-    <cellStyle name="fkwve0di" xfId="3"/>
-    <cellStyle name="fkwve0di_Alternate" xfId="4"/>
-    <cellStyle name="ixhm2a0p" xfId="5"/>
-    <cellStyle name="ixhm2a0p_Alternate" xfId="6"/>
-    <cellStyle name="si3wll0g" xfId="7"/>
-    <cellStyle name="si3wll0g_Alternate" xfId="8"/>
-    <cellStyle name="zijajqep" xfId="9"/>
-    <cellStyle name="zijajqep_Alternate" xfId="10"/>
-    <cellStyle name="fx3fyfnu" xfId="11"/>
-    <cellStyle name="fx3fyfnu_Alternate" xfId="12"/>
+    <cellStyle name="edsx10av" xfId="1"/>
+    <cellStyle name="edsx10av_Alternate" xfId="2"/>
+    <cellStyle name="p4hw13bv" xfId="3"/>
+    <cellStyle name="p4hw13bv_Alternate" xfId="4"/>
+    <cellStyle name="3c52pwgi" xfId="5"/>
+    <cellStyle name="3c52pwgi_Alternate" xfId="6"/>
+    <cellStyle name="fxfj5ecl" xfId="7"/>
+    <cellStyle name="fxfj5ecl_Alternate" xfId="8"/>
+    <cellStyle name="e3zniney" xfId="9"/>
+    <cellStyle name="e3zniney_Alternate" xfId="10"/>
+    <cellStyle name="zcyvqpjb" xfId="11"/>
+    <cellStyle name="zcyvqpjb_Alternate" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -647,142 +536,142 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>33</v>
+      <c r="A2" s="14">
+        <v>12001</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>37</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="E2" s="17">
+        <v>3.990000009536743</v>
+      </c>
+      <c r="F2" s="17">
+        <v>2.69</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>34</v>
+      <c r="A3" s="14">
+        <v>12002</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5.329999923706055</v>
+      </c>
+      <c r="E3" s="17">
+        <v>12.100000381469727</v>
+      </c>
+      <c r="F3" s="17">
+        <v>6.77</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>35</v>
+      <c r="A4" s="14">
+        <v>12003</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17">
+        <v>8.989999771118164</v>
+      </c>
+      <c r="E4" s="17">
+        <v>15.369999885559082</v>
+      </c>
+      <c r="F4" s="17">
+        <v>6.38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>36</v>
+      <c r="A5" s="14">
+        <v>12010</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17">
+        <v>4.300000190734863</v>
+      </c>
+      <c r="E5" s="17">
+        <v>8</v>
+      </c>
+      <c r="F5" s="17">
+        <v>3.7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>37</v>
+      <c r="A6" s="14">
+        <v>12011</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14">
+        <v>7</v>
+      </c>
+      <c r="D6" s="17">
+        <v>13.770000457763672</v>
+      </c>
+      <c r="E6" s="17">
+        <v>23.479999542236328</v>
+      </c>
+      <c r="F6" s="17">
+        <v>9.71</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="A7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16">
         <f>SUBTOTAL(109, 'Chart And Secondary Axis'!C2:C6)</f>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="18">
         <f>SUBTOTAL(109, 'Chart And Secondary Axis'!D2:D6)</f>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="18">
         <f>SUBTOTAL(109, 'Chart And Secondary Axis'!E2:E6)</f>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="18">
         <f>SUBTOTAL(109, 'Chart And Secondary Axis'!F2:F6)</f>
       </c>
     </row>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-26/Sample-26.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-26/Sample-26.xlsx
@@ -175,18 +175,18 @@
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="edsx10av" xfId="1"/>
-    <cellStyle name="edsx10av_Alternate" xfId="2"/>
-    <cellStyle name="p4hw13bv" xfId="3"/>
-    <cellStyle name="p4hw13bv_Alternate" xfId="4"/>
-    <cellStyle name="3c52pwgi" xfId="5"/>
-    <cellStyle name="3c52pwgi_Alternate" xfId="6"/>
-    <cellStyle name="fxfj5ecl" xfId="7"/>
-    <cellStyle name="fxfj5ecl_Alternate" xfId="8"/>
-    <cellStyle name="e3zniney" xfId="9"/>
-    <cellStyle name="e3zniney_Alternate" xfId="10"/>
-    <cellStyle name="zcyvqpjb" xfId="11"/>
-    <cellStyle name="zcyvqpjb_Alternate" xfId="12"/>
+    <cellStyle name="zn2xrb4t" xfId="1"/>
+    <cellStyle name="zn2xrb4t_Alternate" xfId="2"/>
+    <cellStyle name="w1dfwdje" xfId="3"/>
+    <cellStyle name="w1dfwdje_Alternate" xfId="4"/>
+    <cellStyle name="fkokkwwg" xfId="5"/>
+    <cellStyle name="fkokkwwg_Alternate" xfId="6"/>
+    <cellStyle name="e00w43qd" xfId="7"/>
+    <cellStyle name="e00w43qd_Alternate" xfId="8"/>
+    <cellStyle name="0nh2kitd" xfId="9"/>
+    <cellStyle name="0nh2kitd_Alternate" xfId="10"/>
+    <cellStyle name="gm2fwyic" xfId="11"/>
+    <cellStyle name="gm2fwyic_Alternate" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
